--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A2F11-4B28-A543-A91A-183F3F5BDFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F6A5DE-36C5-294D-A3B5-263600E062A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="3520" windowWidth="36900" windowHeight="17440" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="41560" yWindow="3600" windowWidth="22880" windowHeight="17260" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="380">
   <si>
     <t>Player</t>
   </si>
@@ -1174,6 +1174,9 @@
   <si>
     <t>Age</t>
   </si>
+  <si>
+    <t>Jaxson Paulo</t>
+  </si>
 </sst>
 </file>
 
@@ -2060,15 +2063,17 @@
   <dimension ref="A1:AL815"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A817" sqref="A817"/>
+      <selection pane="bottomRight" activeCell="E819" sqref="E819"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" customWidth="1"/>
+    <col min="13" max="34" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.83203125" collapsed="1"/>
     <col min="36" max="38" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -3875,13 +3880,13 @@
         <v>-26.883211678832119</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -6835,7 +6840,7 @@
         <v>-26.10948905109489</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -22598,7 +22603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -29054,12 +29059,12 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="504" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
       <c r="B504" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="C504">
         <v>24</v>
@@ -33238,7 +33243,7 @@
         <v>28.616788321167885</v>
       </c>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>3</v>
       </c>
@@ -43591,12 +43596,12 @@
         <v>-6.7591240875912426</v>
       </c>
     </row>
-    <row r="775" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>3</v>
       </c>
       <c r="B775" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="C775">
         <v>24</v>
@@ -45723,7 +45728,7 @@
   <autoFilter ref="A1:AL815" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
     <filterColumn colId="1">
       <filters>
-        <filter val="M. Timoko"/>
+        <filter val="Jaxson Paulo"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F6A5DE-36C5-294D-A3B5-263600E062A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80393D3-AAF7-D742-A888-88BFA94A4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41560" yWindow="3600" windowWidth="22880" windowHeight="17260" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="33460" yWindow="2540" windowWidth="29980" windowHeight="18340" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -2063,16 +2063,16 @@
   <dimension ref="A1:AL815"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E819" sqref="E819"/>
+      <selection pane="bottomRight" activeCell="H816" sqref="H816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" customWidth="1"/>
-    <col min="13" max="34" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="34" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="10.83203125" collapsed="1"/>
     <col min="36" max="38" width="10.83203125" style="2"/>
   </cols>
@@ -3880,7 +3880,7 @@
         <v>-26.883211678832119</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -15876,7 +15876,7 @@
         <v>-17.941605839416056</v>
       </c>
     </row>
-    <row r="259" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" ref="A259:A272" si="12">A258</f>
         <v>1</v>
@@ -24013,7 +24013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2</v>
       </c>
@@ -29059,7 +29059,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -38845,7 +38845,7 @@
         <v>5.1642335766423386</v>
       </c>
     </row>
-    <row r="687" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>3</v>
       </c>
@@ -43596,7 +43596,7 @@
         <v>-6.7591240875912426</v>
       </c>
     </row>
-    <row r="775" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>3</v>
       </c>
@@ -45728,7 +45728,7 @@
   <autoFilter ref="A1:AL815" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Jaxson Paulo"/>
+        <filter val="C. Townsend"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C31D77-3F60-9740-9A36-DD659D48DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD43FA14-85FD-CB4C-BA74-E7E1F5996F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32300" yWindow="3520" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="35080" yWindow="2580" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
     <t/>
   </si>
   <si>
-    <t>POS</t>
+    <t>POS1</t>
   </si>
 </sst>
 </file>
@@ -2115,10 +2115,10 @@
   <dimension ref="A1:AO832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD43FA14-85FD-CB4C-BA74-E7E1F5996F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C227E-E761-B34E-B8D0-7629B4F67EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="2580" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="394">
   <si>
     <t>Player</t>
   </si>
@@ -2112,13 +2112,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="H823" sqref="H823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>-13.386861313868614</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="2">A2</f>
         <v>1</v>
@@ -2390,7 +2391,7 @@
         <v>14.715328467153284</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2467,7 +2468,7 @@
         <v>9.5109489051094869</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2535,7 +2536,7 @@
         <v>0.62043795620437692</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2606,7 +2607,7 @@
         <v>-6.2883211678832112</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2675,7 +2676,7 @@
         <v>3.6204379562043805</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2752,7 +2753,7 @@
         <v>-10.018248175182485</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2820,7 +2821,7 @@
         <v>-0.81386861313868764</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2879,7 +2880,7 @@
         <v>14.211678832116789</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2938,7 +2939,7 @@
         <v>-6.0072992700729912</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2991,7 +2992,7 @@
         <v>4.6350364963503665</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3062,7 +3063,7 @@
         <v>1.8540145985401466</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3130,7 +3131,7 @@
         <v>-11.379562043795623</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3198,7 +3199,7 @@
         <v>-2.5182481751824817</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3257,7 +3258,7 @@
         <v>-3.2627737226277347</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3313,7 +3314,7 @@
         <v>-9.9854014598540175</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3366,7 +3367,7 @@
         <v>-4.6423357664233578</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3413,7 +3414,7 @@
         <v>6.2335766423357661</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3472,7 +3473,7 @@
         <v>-8.6934306569343036</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3528,7 +3529,7 @@
         <v>-1.1386861313868621</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3575,7 +3576,7 @@
         <v>7.204379562043794</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3637,7 +3638,7 @@
         <v>-6.7737226277372251</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3696,7 +3697,7 @@
         <v>-8.10948905109489</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3749,7 +3750,7 @@
         <v>-8.6934306569343036</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3799,7 +3800,7 @@
         <v>4.8102189781021885</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3852,7 +3853,7 @@
         <v>-2.1459854014598534</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3908,7 +3909,7 @@
         <v>4.2700729927007295</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3970,7 +3971,7 @@
         <v>-8.0291970802919721</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4023,7 +4024,7 @@
         <v>-6.5474452554744538</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4076,7 +4077,7 @@
         <v>-9.7591240875912426</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4126,7 +4127,7 @@
         <v>-26.883211678832119</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4185,7 +4186,7 @@
         <v>-9.8978102189781012</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4238,7 +4239,7 @@
         <v>-23.78102189781022</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4291,7 +4292,7 @@
         <v>-18.306569343065693</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4353,7 +4354,7 @@
         <v>14.284671532846716</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4427,7 +4428,7 @@
         <v>14.886861313868614</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4483,7 +4484,7 @@
         <v>23.54744525547445</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4536,7 +4537,7 @@
         <v>17.401459854014597</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4601,7 +4602,7 @@
         <v>3.649635036496349</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4663,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4734,7 +4735,7 @@
         <v>-1.0839416058394136</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4796,7 +4797,7 @@
         <v>-7.4124087591240908</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4852,7 +4853,7 @@
         <v>-0.21167883211678884</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4908,7 +4909,7 @@
         <v>12.124087591240876</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4967,7 +4968,7 @@
         <v>17.766423357664234</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5026,7 +5027,7 @@
         <v>9.8175182481751833</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5082,7 +5083,7 @@
         <v>-19.496350364963504</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5147,7 +5148,7 @@
         <v>-2.4306569343065689</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5212,7 +5213,7 @@
         <v>8.9416058394160558</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5280,7 +5281,7 @@
         <v>-9.1678832116788342</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5348,7 +5349,7 @@
         <v>8.1861313868613124</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5410,7 +5411,7 @@
         <v>-11.430656934306569</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5466,7 +5467,7 @@
         <v>-12.627737226277375</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5483,9 +5484,6 @@
       <c r="F55" t="s">
         <v>341</v>
       </c>
-      <c r="G55" t="s">
-        <v>341</v>
-      </c>
       <c r="H55" s="2">
         <v>503000</v>
       </c>
@@ -5531,7 +5529,7 @@
         <v>-2.7153284671532845</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5596,7 +5594,7 @@
         <v>-10.189781021897808</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5652,7 +5650,7 @@
         <v>3.1751824817518255</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5717,7 +5715,7 @@
         <v>-19.496350364963504</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5767,7 +5765,7 @@
         <v>-1.6861313868613124</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5820,7 +5818,7 @@
         <v>-5.9708029197080279</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5870,7 +5868,7 @@
         <v>-13.029197080291972</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5929,7 +5927,7 @@
         <v>-9.8686131386861291</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5982,7 +5980,7 @@
         <v>-8.189781021897808</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6038,7 +6036,7 @@
         <v>-6.0291970802919721</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6088,7 +6086,7 @@
         <v>2.2116788321167888</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6135,7 +6133,7 @@
         <v>-11.832116788321169</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="5">A66</f>
         <v>1</v>
@@ -6188,7 +6186,7 @@
         <v>-16.540145985401459</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6247,7 +6245,7 @@
         <v>-25.897810218978101</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6297,7 +6295,7 @@
         <v>-30.802919708029197</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6365,7 +6363,7 @@
         <v>11.521897810218981</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6427,7 +6425,7 @@
         <v>3.6642335766423386</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6492,7 +6490,7 @@
         <v>7.4197080291970821</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6554,7 +6552,7 @@
         <v>-1.8686131386861291</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6613,7 +6611,7 @@
         <v>6.7737226277372287</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6672,7 +6670,7 @@
         <v>-9.4306569343065689</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6725,7 +6723,7 @@
         <v>5.8686131386861291</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6787,7 +6785,7 @@
         <v>12.693430656934304</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6852,7 +6850,7 @@
         <v>-5.4963503649635044</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6923,7 +6921,7 @@
         <v>-17.485401459854018</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6982,7 +6980,7 @@
         <v>-8.4014598540145968</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7056,7 +7054,7 @@
         <v>-0.88321167883211515</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7121,7 +7119,7 @@
         <v>4.9963503649635044</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7183,7 +7181,7 @@
         <v>14.824817518248175</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7236,7 +7234,7 @@
         <v>7.4890510948905096</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7286,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7342,7 +7340,7 @@
         <v>-13.635036496350367</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7416,7 +7414,7 @@
         <v>-26.10948905109489</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7472,7 +7470,7 @@
         <v>4.1532846715328446</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7489,9 +7487,6 @@
       <c r="F89" t="s">
         <v>341</v>
       </c>
-      <c r="G89" t="s">
-        <v>341</v>
-      </c>
       <c r="H89" s="2">
         <v>392000</v>
       </c>
@@ -7534,7 +7529,7 @@
         <v>3.8868613138686143</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7587,7 +7582,7 @@
         <v>-5.9270072992700733</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7652,7 +7647,7 @@
         <v>5.1897810218978115</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7711,7 +7706,7 @@
         <v>-7.5182481751824852</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7773,7 +7768,7 @@
         <v>-11.343065693430656</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7829,7 +7824,7 @@
         <v>-9.4452554744525514</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7891,7 +7886,7 @@
         <v>-15.474452554744524</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7947,7 +7942,7 @@
         <v>-3.7372262773722618</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8006,7 +8001,7 @@
         <v>-4.1751824817518255</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8059,7 +8054,7 @@
         <v>-4.2773722627737243</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8109,7 +8104,7 @@
         <v>-7.8321167883211693</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8165,7 +8160,7 @@
         <v>-18.401459854014597</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8215,7 +8210,7 @@
         <v>-18.518248175182485</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8268,7 +8263,7 @@
         <v>-9.6934306569343072</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8318,7 +8313,7 @@
         <v>-12.656934306569344</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8377,7 +8372,7 @@
         <v>6.3138686131386876</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8430,7 +8425,7 @@
         <v>15.036496350364963</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8495,7 +8490,7 @@
         <v>11.839416058394164</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8575,7 +8570,7 @@
         <v>6.8649635036496335</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8628,7 +8623,7 @@
         <v>7.0510948905109458</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8687,7 +8682,7 @@
         <v>13.248175182481752</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8752,7 +8747,7 @@
         <v>-5.7518248175182478</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8811,7 +8806,7 @@
         <v>-7.700729927007302</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8870,7 +8865,7 @@
         <v>3.8467153284671554</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8926,7 +8921,7 @@
         <v>8.5182481751824852</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8979,7 +8974,7 @@
         <v>4.5109489051094869</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9038,7 +9033,7 @@
         <v>-5.5109489051094869</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9103,7 +9098,7 @@
         <v>-0.9489051094890506</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9159,7 +9154,7 @@
         <v>1.5036496350364956</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9218,7 +9213,7 @@
         <v>8.905109489051096</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9271,7 +9266,7 @@
         <v>-4.189781021897808</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9330,7 +9325,7 @@
         <v>1.7956204379562024</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9395,7 +9390,7 @@
         <v>-21.693430656934304</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9412,9 +9407,6 @@
       <c r="F122" t="s">
         <v>341</v>
       </c>
-      <c r="G122" t="s">
-        <v>341</v>
-      </c>
       <c r="H122" s="2">
         <v>511000</v>
       </c>
@@ -9457,7 +9449,7 @@
         <v>-1.299270072992698</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9525,7 +9517,7 @@
         <v>-4.8686131386861291</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9593,7 +9585,7 @@
         <v>-8.7992700729927016</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9658,7 +9650,7 @@
         <v>-0.61313868613138567</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9711,7 +9703,7 @@
         <v>-7.9051094890510925</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9761,7 +9753,7 @@
         <v>-12.262773722627735</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9823,7 +9815,7 @@
         <v>-29.204379562043798</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9876,7 +9868,7 @@
         <v>6.9781021897810227</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9932,7 +9924,7 @@
         <v>-16.959854014598541</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" ref="A131:A194" si="8">A130</f>
         <v>1</v>
@@ -9994,7 +9986,7 @@
         <v>-16.751824817518248</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10056,7 +10048,7 @@
         <v>-21.138686131386862</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10109,7 +10101,7 @@
         <v>-9.5985401459854032</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10165,7 +10157,7 @@
         <v>-9.3430656934306562</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10215,7 +10207,7 @@
         <v>-23.043795620437955</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10268,7 +10260,7 @@
         <v>-11.627737226277372</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10333,7 +10325,7 @@
         <v>-6.8832116788321116</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10395,7 +10387,7 @@
         <v>8.2116788321167888</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10460,7 +10452,7 @@
         <v>33.299270072992698</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10522,7 +10514,7 @@
         <v>5.7518248175182478</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10587,7 +10579,7 @@
         <v>-16.372262773722625</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10646,7 +10638,7 @@
         <v>-9.6934306569343036</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10708,7 +10700,7 @@
         <v>19.467153284671532</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10764,7 +10756,7 @@
         <v>2.9343065693430646</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10823,7 +10815,7 @@
         <v>4.189781021897808</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10885,7 +10877,7 @@
         <v>0.87591240875912746</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10950,7 +10942,7 @@
         <v>-17.051094890510946</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11018,7 +11010,7 @@
         <v>-21.948905109489054</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11086,7 +11078,7 @@
         <v>1.5510948905109494</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11142,7 +11134,7 @@
         <v>-6.6423357664233578</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11207,7 +11199,7 @@
         <v>-0.83576642335766138</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11266,7 +11258,7 @@
         <v>-8.1532846715328446</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11328,7 +11320,7 @@
         <v>-6.6277372262773753</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11384,7 +11376,7 @@
         <v>8.89051094890511</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11401,9 +11393,6 @@
       <c r="F155" t="s">
         <v>341</v>
       </c>
-      <c r="G155" t="s">
-        <v>341</v>
-      </c>
       <c r="H155" s="2">
         <v>564000</v>
       </c>
@@ -11443,7 +11432,7 @@
         <v>-9.1678832116788342</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11499,7 +11488,7 @@
         <v>-2.5766423357664223</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11570,7 +11559,7 @@
         <v>-9.8321167883211658</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11626,7 +11615,7 @@
         <v>-12.700729927007302</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11688,7 +11677,7 @@
         <v>-6.3941605839416056</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11738,7 +11727,7 @@
         <v>-9.4160583941605864</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11797,7 +11786,7 @@
         <v>2.4379562043795637</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11850,7 +11839,7 @@
         <v>-2.7591240875912426</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11906,7 +11895,7 @@
         <v>10.211678832116789</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -11962,7 +11951,7 @@
         <v>-17.649635036496349</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12015,7 +12004,7 @@
         <v>-10.496350364963504</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12074,7 +12063,7 @@
         <v>-15.182481751824817</v>
       </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12133,7 +12122,7 @@
         <v>-10.094890510948904</v>
       </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12198,7 +12187,7 @@
         <v>-23.934306569343065</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12251,7 +12240,7 @@
         <v>-14.226277372262775</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12304,7 +12293,7 @@
         <v>-32.094890510948908</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12372,7 +12361,7 @@
         <v>21.145985401459853</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12428,7 +12417,7 @@
         <v>0.82481751824817451</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12487,7 +12476,7 @@
         <v>19.131386861313871</v>
       </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12546,7 +12535,7 @@
         <v>-6.4525547445255498</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12602,7 +12591,7 @@
         <v>4.810218978102192</v>
       </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12658,7 +12647,7 @@
         <v>-10.751824817518248</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12723,7 +12712,7 @@
         <v>-3.0255474452554765</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12785,7 +12774,7 @@
         <v>4.1970802919708063</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12847,7 +12836,7 @@
         <v>19.397810218978101</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12900,7 +12889,7 @@
         <v>1.8540145985401466</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -12965,7 +12954,7 @@
         <v>-9.5693430656934311</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13027,7 +13016,7 @@
         <v>-1.8576642335766422</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13092,7 +13081,7 @@
         <v>-8.8613138686131379</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13151,7 +13140,7 @@
         <v>-4.9124087591240873</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13204,7 +13193,7 @@
         <v>-6.4087591240875881</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13260,7 +13249,7 @@
         <v>-3.8430656934306562</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13319,7 +13308,7 @@
         <v>-12.080291970802918</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13381,7 +13370,7 @@
         <v>-2.3357664233576614</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13449,7 +13438,7 @@
         <v>8.2883211678832112</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13517,7 +13506,7 @@
         <v>-16.291970802919707</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13582,7 +13571,7 @@
         <v>-20.963503649635037</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13635,7 +13624,7 @@
         <v>-9.8029197080291937</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13700,7 +13689,7 @@
         <v>-16.525547445255476</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13759,7 +13748,7 @@
         <v>-15.116788321167881</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" ref="A195:A258" si="11">A194</f>
         <v>1</v>
@@ -13827,7 +13816,7 @@
         <v>-3.8795620437956231</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -13886,7 +13875,7 @@
         <v>-5.7883211678832112</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -13942,7 +13931,7 @@
         <v>1.6131386861313857</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -13992,7 +13981,7 @@
         <v>-3.2481751824817522</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14045,7 +14034,7 @@
         <v>-2.6715328467153299</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14101,7 +14090,7 @@
         <v>-23.087591240875909</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14151,7 +14140,7 @@
         <v>-23.510948905109487</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14198,7 +14187,7 @@
         <v>-1.7883211678832112</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14242,7 +14231,7 @@
         <v>-22.846715328467155</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14289,7 +14278,7 @@
         <v>-34.32846715328467</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14354,7 +14343,7 @@
         <v>-11.142335766423358</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14428,7 +14417,7 @@
         <v>-3.5182481751824852</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14493,7 +14482,7 @@
         <v>6.5255474452554765</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14561,7 +14550,7 @@
         <v>24.521897810218977</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14629,7 +14618,7 @@
         <v>-0.85401459854014661</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14682,7 +14671,7 @@
         <v>15.175182481751825</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14738,7 +14727,7 @@
         <v>-3.6715328467153299</v>
       </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14803,7 +14792,7 @@
         <v>-7.2992700729926696E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14868,7 +14857,7 @@
         <v>-16.416058394160586</v>
       </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14921,7 +14910,7 @@
         <v>16.021897810218977</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -14986,7 +14975,7 @@
         <v>2.9708029197080279</v>
       </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15042,7 +15031,7 @@
         <v>-5.9708029197080279</v>
       </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15092,7 +15081,7 @@
         <v>1.4671532846715323</v>
       </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15145,7 +15134,7 @@
         <v>-2.2116788321167888</v>
       </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15195,7 +15184,7 @@
         <v>7.4233576642335777</v>
       </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15257,7 +15246,7 @@
         <v>3.5072992700729912</v>
       </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15313,7 +15302,7 @@
         <v>-1.3649635036496335</v>
       </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15387,7 +15376,7 @@
         <v>-11.116788321167881</v>
       </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15455,7 +15444,7 @@
         <v>6.4306569343065689</v>
       </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15505,7 +15494,7 @@
         <v>-8.7737226277372287</v>
       </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15564,7 +15553,7 @@
         <v>-2.7664233576642303</v>
       </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15617,7 +15606,7 @@
         <v>-21.824817518248175</v>
       </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15673,7 +15662,7 @@
         <v>-7.8175182481751833</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15723,7 +15712,7 @@
         <v>-8.6058394160583944</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15770,7 +15759,7 @@
         <v>4.2116788321167888</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15832,7 +15821,7 @@
         <v>-13.087591240875909</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15885,7 +15874,7 @@
         <v>3.5328467153284677</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15944,7 +15933,7 @@
         <v>-21.503649635036496</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -15988,7 +15977,7 @@
         <v>-21.145985401459853</v>
       </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16050,7 +16039,7 @@
         <v>-29.518248175182485</v>
       </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16109,7 +16098,7 @@
         <v>-13.102189781021899</v>
       </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16156,7 +16145,7 @@
         <v>-3.7883211678832112</v>
       </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16203,7 +16192,7 @@
         <v>-7.8613138686131379</v>
       </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16250,7 +16239,7 @@
         <v>-20.649635036496349</v>
       </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16315,7 +16304,7 @@
         <v>16.981751824817515</v>
       </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16380,7 +16369,7 @@
         <v>-3.4854014598540175</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16451,7 +16440,7 @@
         <v>4.9014598540145968</v>
       </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16516,7 +16505,7 @@
         <v>2.1824817518248167</v>
       </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16581,7 +16570,7 @@
         <v>19.153284671532848</v>
       </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16646,7 +16635,7 @@
         <v>6.1642335766423386</v>
       </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16717,7 +16706,7 @@
         <v>-7.3576642335766422</v>
       </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16785,7 +16774,7 @@
         <v>-10.821167883211679</v>
       </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16844,7 +16833,7 @@
         <v>-6.1167883211678813</v>
       </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16912,7 +16901,7 @@
         <v>-6.350364963503651</v>
       </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -16974,7 +16963,7 @@
         <v>11.613138686131386</v>
       </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17033,7 +17022,7 @@
         <v>14.605839416058394</v>
       </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17089,7 +17078,7 @@
         <v>-0.82481751824817451</v>
       </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17139,7 +17128,7 @@
         <v>-23.824817518248175</v>
       </c>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17207,7 +17196,7 @@
         <v>-5.3138686131386876</v>
       </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17257,7 +17246,7 @@
         <v>7.4890510948905096</v>
       </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17313,7 +17302,7 @@
         <v>-0.81021897810219201</v>
       </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17366,7 +17355,7 @@
         <v>6.0875912408759127</v>
       </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17431,7 +17420,7 @@
         <v>7.3248175182481745</v>
       </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -17478,7 +17467,7 @@
         <v>-17.941605839416056</v>
       </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" ref="A259:A272" si="14">A258</f>
         <v>1</v>
@@ -17540,7 +17529,7 @@
         <v>0.74087591240875739</v>
       </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17590,7 +17579,7 @@
         <v>1.3722627737226247</v>
       </c>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17649,7 +17638,7 @@
         <v>-2.2080291970802932</v>
       </c>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17705,7 +17694,7 @@
         <v>-1.6569343065693438</v>
       </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17764,7 +17753,7 @@
         <v>-23.306569343065696</v>
       </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17814,7 +17803,7 @@
         <v>0.61313868613138567</v>
       </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17870,7 +17859,7 @@
         <v>0.85401459854014661</v>
       </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17923,7 +17912,7 @@
         <v>8.2554744525547434</v>
       </c>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17976,7 +17965,7 @@
         <v>1.4087591240875916</v>
       </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18041,7 +18030,7 @@
         <v>-3.4744525547445271</v>
       </c>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18103,7 +18092,7 @@
         <v>-8.0291970802917945E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18153,7 +18142,7 @@
         <v>-8.1751824817518255</v>
       </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18203,7 +18192,7 @@
         <v>-4.649635036496349</v>
       </c>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -18256,7 +18245,7 @@
         <v>-20.715328467153284</v>
       </c>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2</v>
       </c>
@@ -18270,9 +18259,6 @@
         <v>22</v>
       </c>
       <c r="F273" t="s">
-        <v>341</v>
-      </c>
-      <c r="G273" t="s">
         <v>341</v>
       </c>
       <c r="H273" s="1">
@@ -18333,7 +18319,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2</v>
       </c>
@@ -18410,7 +18396,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2</v>
       </c>
@@ -18469,7 +18455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2</v>
       </c>
@@ -18540,7 +18526,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2</v>
       </c>
@@ -18590,7 +18576,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2</v>
       </c>
@@ -18658,7 +18644,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2</v>
       </c>
@@ -18732,7 +18718,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
@@ -18794,7 +18780,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2</v>
       </c>
@@ -18847,7 +18833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2</v>
       </c>
@@ -18906,7 +18892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2</v>
       </c>
@@ -18968,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2</v>
       </c>
@@ -19030,7 +19016,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -19086,7 +19072,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2</v>
       </c>
@@ -19136,7 +19122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2</v>
       </c>
@@ -19201,7 +19187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2</v>
       </c>
@@ -19263,7 +19249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2</v>
       </c>
@@ -19319,7 +19305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2</v>
       </c>
@@ -19381,7 +19367,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2</v>
       </c>
@@ -19446,7 +19432,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -19496,7 +19482,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2</v>
       </c>
@@ -19549,7 +19535,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2</v>
       </c>
@@ -19614,7 +19600,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2</v>
       </c>
@@ -19664,7 +19650,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2</v>
       </c>
@@ -19720,7 +19706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2</v>
       </c>
@@ -19770,7 +19756,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2</v>
       </c>
@@ -19829,7 +19815,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2</v>
       </c>
@@ -19891,7 +19877,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2</v>
       </c>
@@ -19947,7 +19933,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2</v>
       </c>
@@ -20012,7 +19998,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2</v>
       </c>
@@ -20068,7 +20054,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2</v>
       </c>
@@ -20124,7 +20110,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -20186,7 +20172,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2</v>
       </c>
@@ -20233,7 +20219,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2</v>
       </c>
@@ -20286,7 +20272,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -20360,7 +20346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2</v>
       </c>
@@ -20437,7 +20423,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2</v>
       </c>
@@ -20505,7 +20491,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2</v>
       </c>
@@ -20576,7 +20562,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2</v>
       </c>
@@ -20641,7 +20627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2</v>
       </c>
@@ -20697,7 +20683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2</v>
       </c>
@@ -20759,7 +20745,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2</v>
       </c>
@@ -20812,7 +20798,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2</v>
       </c>
@@ -20871,7 +20857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2</v>
       </c>
@@ -20927,7 +20913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2</v>
       </c>
@@ -20992,7 +20978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2</v>
       </c>
@@ -21057,7 +21043,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2</v>
       </c>
@@ -21122,7 +21108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2</v>
       </c>
@@ -21178,7 +21164,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2</v>
       </c>
@@ -21243,7 +21229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2</v>
       </c>
@@ -21308,7 +21294,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -21364,7 +21350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -21417,7 +21403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -21464,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2</v>
       </c>
@@ -21517,7 +21503,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2</v>
       </c>
@@ -21585,7 +21571,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2</v>
       </c>
@@ -21641,7 +21627,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2</v>
       </c>
@@ -21694,7 +21680,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2</v>
       </c>
@@ -21762,7 +21748,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2</v>
       </c>
@@ -21815,7 +21801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2</v>
       </c>
@@ -21868,7 +21854,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2</v>
       </c>
@@ -21933,7 +21919,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2</v>
       </c>
@@ -21995,7 +21981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2</v>
       </c>
@@ -22060,7 +22046,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2</v>
       </c>
@@ -22113,7 +22099,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="337" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2</v>
       </c>
@@ -22181,7 +22167,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="338" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2</v>
       </c>
@@ -22231,7 +22217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="339" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2</v>
       </c>
@@ -22290,7 +22276,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="340" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2</v>
       </c>
@@ -22334,7 +22320,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="341" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2</v>
       </c>
@@ -22408,7 +22394,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="342" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2</v>
       </c>
@@ -22473,7 +22459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2</v>
       </c>
@@ -22532,7 +22518,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="344" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2</v>
       </c>
@@ -22603,7 +22589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2</v>
       </c>
@@ -22674,7 +22660,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="346" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2</v>
       </c>
@@ -22748,7 +22734,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="347" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2</v>
       </c>
@@ -22807,7 +22793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2</v>
       </c>
@@ -22869,7 +22855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2</v>
       </c>
@@ -22937,7 +22923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2</v>
       </c>
@@ -22993,7 +22979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2</v>
       </c>
@@ -23061,7 +23047,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="352" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2</v>
       </c>
@@ -23120,7 +23106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2</v>
       </c>
@@ -23185,7 +23171,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="354" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2</v>
       </c>
@@ -23247,7 +23233,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="355" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2</v>
       </c>
@@ -23309,7 +23295,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="356" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2</v>
       </c>
@@ -23371,7 +23357,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="357" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2</v>
       </c>
@@ -23439,7 +23425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2</v>
       </c>
@@ -23498,7 +23484,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="359" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2</v>
       </c>
@@ -23557,7 +23543,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="360" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2</v>
       </c>
@@ -23610,7 +23596,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="361" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2</v>
       </c>
@@ -23663,7 +23649,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="362" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2</v>
       </c>
@@ -23731,7 +23717,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="363" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2</v>
       </c>
@@ -23787,7 +23773,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="364" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -23852,7 +23838,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="365" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -23914,7 +23900,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="366" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2</v>
       </c>
@@ -23970,7 +23956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2</v>
       </c>
@@ -24029,7 +24015,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="368" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2</v>
       </c>
@@ -24100,7 +24086,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="369" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2</v>
       </c>
@@ -24162,7 +24148,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="370" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2</v>
       </c>
@@ -24212,7 +24198,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="371" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2</v>
       </c>
@@ -24265,7 +24251,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="372" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2</v>
       </c>
@@ -24303,7 +24289,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="373" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2</v>
       </c>
@@ -24341,7 +24327,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="374" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2</v>
       </c>
@@ -24385,7 +24371,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="375" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2</v>
       </c>
@@ -24456,7 +24442,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="376" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2</v>
       </c>
@@ -24521,7 +24507,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="377" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2</v>
       </c>
@@ -24589,7 +24575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2</v>
       </c>
@@ -24654,7 +24640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2</v>
       </c>
@@ -24716,7 +24702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="380" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2</v>
       </c>
@@ -24766,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2</v>
       </c>
@@ -24834,7 +24820,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="382" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2</v>
       </c>
@@ -24899,7 +24885,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="383" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2</v>
       </c>
@@ -24955,7 +24941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -25017,7 +25003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2</v>
       </c>
@@ -25132,7 +25118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2</v>
       </c>
@@ -25197,7 +25183,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="388" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2</v>
       </c>
@@ -25268,7 +25254,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="389" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2</v>
       </c>
@@ -25324,7 +25310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2</v>
       </c>
@@ -25383,7 +25369,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="391" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2</v>
       </c>
@@ -25436,7 +25422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2</v>
       </c>
@@ -25501,7 +25487,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="393" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2</v>
       </c>
@@ -25554,7 +25540,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="394" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2</v>
       </c>
@@ -25607,7 +25593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2</v>
       </c>
@@ -25621,9 +25607,6 @@
         <v>23</v>
       </c>
       <c r="F395" t="s">
-        <v>341</v>
-      </c>
-      <c r="G395" t="s">
         <v>341</v>
       </c>
       <c r="H395" s="1">
@@ -25663,7 +25646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2</v>
       </c>
@@ -25716,7 +25699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2</v>
       </c>
@@ -25784,7 +25767,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="398" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2</v>
       </c>
@@ -25843,7 +25826,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="399" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2</v>
       </c>
@@ -25899,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2</v>
       </c>
@@ -25961,7 +25944,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="401" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2</v>
       </c>
@@ -26017,7 +26000,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="402" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2</v>
       </c>
@@ -26076,7 +26059,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="403" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2</v>
       </c>
@@ -26138,7 +26121,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="404" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -26191,7 +26174,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="405" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -26244,7 +26227,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="406" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2</v>
       </c>
@@ -26297,7 +26280,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="407" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2</v>
       </c>
@@ -26356,7 +26339,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="408" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -26406,7 +26389,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="409" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2</v>
       </c>
@@ -26471,7 +26454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2</v>
       </c>
@@ -26527,7 +26510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2</v>
       </c>
@@ -26598,7 +26581,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="412" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2</v>
       </c>
@@ -26663,7 +26646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2</v>
       </c>
@@ -26722,7 +26705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2</v>
       </c>
@@ -26784,7 +26767,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="415" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2</v>
       </c>
@@ -26855,7 +26838,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="416" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2</v>
       </c>
@@ -26914,7 +26897,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="417" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2</v>
       </c>
@@ -26967,7 +26950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2</v>
       </c>
@@ -27035,7 +27018,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="419" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2</v>
       </c>
@@ -27109,7 +27092,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="420" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2</v>
       </c>
@@ -27162,7 +27145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2</v>
       </c>
@@ -27218,7 +27201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2</v>
       </c>
@@ -27289,7 +27272,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="423" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2</v>
       </c>
@@ -27351,7 +27334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -27422,7 +27405,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="425" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2</v>
       </c>
@@ -27475,7 +27458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2</v>
       </c>
@@ -27531,7 +27514,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="427" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2</v>
       </c>
@@ -27596,7 +27579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2</v>
       </c>
@@ -27655,7 +27638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2</v>
       </c>
@@ -27729,7 +27712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="430" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2</v>
       </c>
@@ -27788,7 +27771,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="431" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2</v>
       </c>
@@ -27850,7 +27833,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="432" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2</v>
       </c>
@@ -27912,7 +27895,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="433" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2</v>
       </c>
@@ -27971,7 +27954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2</v>
       </c>
@@ -28036,7 +28019,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="435" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2</v>
       </c>
@@ -28089,7 +28072,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="436" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2</v>
       </c>
@@ -28136,7 +28119,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="437" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2</v>
       </c>
@@ -28189,7 +28172,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="438" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2</v>
       </c>
@@ -28242,7 +28225,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="439" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -28292,7 +28275,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="440" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2</v>
       </c>
@@ -28348,7 +28331,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="441" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -28401,7 +28384,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="442" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -28454,7 +28437,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="443" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2</v>
       </c>
@@ -28534,7 +28517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -28602,7 +28585,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="445" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -28667,7 +28650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2</v>
       </c>
@@ -28735,7 +28718,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="447" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2</v>
       </c>
@@ -28749,9 +28732,6 @@
         <v>31</v>
       </c>
       <c r="F447" t="s">
-        <v>341</v>
-      </c>
-      <c r="G447" t="s">
         <v>341</v>
       </c>
       <c r="H447" s="1">
@@ -28800,7 +28780,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="448" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2</v>
       </c>
@@ -28862,7 +28842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2</v>
       </c>
@@ -28918,7 +28898,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="450" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2</v>
       </c>
@@ -28980,7 +28960,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="451" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2</v>
       </c>
@@ -28994,9 +28974,6 @@
         <v>27</v>
       </c>
       <c r="F451" t="s">
-        <v>341</v>
-      </c>
-      <c r="G451" t="s">
         <v>341</v>
       </c>
       <c r="H451" s="1">
@@ -29039,7 +29016,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="452" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2</v>
       </c>
@@ -29107,7 +29084,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="453" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2</v>
       </c>
@@ -29166,7 +29143,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="454" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2</v>
       </c>
@@ -29216,7 +29193,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="455" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2</v>
       </c>
@@ -29272,7 +29249,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="456" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2</v>
       </c>
@@ -29340,7 +29317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="457" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2</v>
       </c>
@@ -29402,7 +29379,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="458" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2</v>
       </c>
@@ -29458,7 +29435,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="459" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2</v>
       </c>
@@ -29523,7 +29500,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="460" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2</v>
       </c>
@@ -29588,7 +29565,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="461" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2</v>
       </c>
@@ -29641,7 +29618,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="462" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2</v>
       </c>
@@ -29691,7 +29668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2</v>
       </c>
@@ -29753,7 +29730,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="464" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -29806,7 +29783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -29859,7 +29836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2</v>
       </c>
@@ -29921,7 +29898,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="467" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2</v>
       </c>
@@ -29977,7 +29954,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="468" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2</v>
       </c>
@@ -30027,7 +30004,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="469" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2</v>
       </c>
@@ -30080,7 +30057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2</v>
       </c>
@@ -30142,7 +30119,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="471" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2</v>
       </c>
@@ -30198,7 +30175,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="472" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2</v>
       </c>
@@ -30266,7 +30243,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="473" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2</v>
       </c>
@@ -30316,7 +30293,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="474" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2</v>
       </c>
@@ -30363,7 +30340,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="475" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2</v>
       </c>
@@ -30413,7 +30390,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="476" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2</v>
       </c>
@@ -30457,7 +30434,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="477" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2</v>
       </c>
@@ -30537,7 +30514,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="478" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2</v>
       </c>
@@ -30596,7 +30573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2</v>
       </c>
@@ -30673,7 +30650,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="480" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2</v>
       </c>
@@ -30735,7 +30712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2</v>
       </c>
@@ -30791,7 +30768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2</v>
       </c>
@@ -30844,7 +30821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2</v>
       </c>
@@ -30909,7 +30886,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="484" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -30962,7 +30939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -31036,7 +31013,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="486" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2</v>
       </c>
@@ -31101,7 +31078,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="487" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2</v>
       </c>
@@ -31157,7 +31134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2</v>
       </c>
@@ -31213,7 +31190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2</v>
       </c>
@@ -31269,7 +31246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2</v>
       </c>
@@ -31334,7 +31311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2</v>
       </c>
@@ -31402,7 +31379,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="492" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2</v>
       </c>
@@ -31461,7 +31438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2</v>
       </c>
@@ -31526,7 +31503,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="494" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2</v>
       </c>
@@ -31597,7 +31574,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="495" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2</v>
       </c>
@@ -31656,7 +31633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2</v>
       </c>
@@ -31724,7 +31701,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="497" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2</v>
       </c>
@@ -31783,7 +31760,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="498" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2</v>
       </c>
@@ -31842,7 +31819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="499" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2</v>
       </c>
@@ -31907,7 +31884,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="500" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2</v>
       </c>
@@ -31960,7 +31937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2</v>
       </c>
@@ -32016,7 +31993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="502" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2</v>
       </c>
@@ -32081,7 +32058,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="503" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2</v>
       </c>
@@ -32131,7 +32108,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="504" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -32190,7 +32167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -32249,7 +32226,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="506" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2</v>
       </c>
@@ -32296,7 +32273,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="507" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2</v>
       </c>
@@ -32358,7 +32335,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="508" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2</v>
       </c>
@@ -32405,7 +32382,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="509" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2</v>
       </c>
@@ -32467,7 +32444,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="510" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2</v>
       </c>
@@ -32519,7 +32496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2</v>
       </c>
@@ -32590,7 +32567,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="512" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2</v>
       </c>
@@ -32658,7 +32635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2</v>
       </c>
@@ -32720,7 +32697,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="514" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2</v>
       </c>
@@ -32788,7 +32765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2</v>
       </c>
@@ -32841,7 +32818,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="516" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2</v>
       </c>
@@ -32903,7 +32880,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="517" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2</v>
       </c>
@@ -32968,7 +32945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>2</v>
       </c>
@@ -33024,7 +33001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>2</v>
       </c>
@@ -33080,7 +33057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="520" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>2</v>
       </c>
@@ -33148,7 +33125,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="521" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2</v>
       </c>
@@ -33207,7 +33184,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="522" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2</v>
       </c>
@@ -33278,7 +33255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="523" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2</v>
       </c>
@@ -33340,7 +33317,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="524" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2</v>
       </c>
@@ -33396,7 +33373,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="525" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -33455,7 +33432,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="526" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>2</v>
       </c>
@@ -33520,7 +33497,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="527" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2</v>
       </c>
@@ -33579,7 +33556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2</v>
       </c>
@@ -33647,7 +33624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2</v>
       </c>
@@ -33709,7 +33686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="530" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2</v>
       </c>
@@ -33762,7 +33739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2</v>
       </c>
@@ -33818,7 +33795,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="532" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2</v>
       </c>
@@ -33871,7 +33848,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="533" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2</v>
       </c>
@@ -33921,7 +33898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2</v>
       </c>
@@ -33977,7 +33954,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="535" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2</v>
       </c>
@@ -34027,7 +34004,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="536" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2</v>
       </c>
@@ -34077,7 +34054,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="537" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2</v>
       </c>
@@ -34130,7 +34107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2</v>
       </c>
@@ -34186,7 +34163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2</v>
       </c>
@@ -34245,7 +34222,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="540" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2</v>
       </c>
@@ -34310,7 +34287,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="541" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2</v>
       </c>
@@ -34372,7 +34349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2</v>
       </c>
@@ -34431,7 +34408,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="543" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2</v>
       </c>
@@ -34478,7 +34455,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="544" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2</v>
       </c>
@@ -34528,7 +34505,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="545" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>3</v>
       </c>
@@ -34593,7 +34570,7 @@
         <v>7.299270072992698</v>
       </c>
     </row>
-    <row r="546" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3</v>
       </c>
@@ -34670,7 +34647,7 @@
         <v>-7.8722627737226247</v>
       </c>
     </row>
-    <row r="547" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -34729,7 +34706,7 @@
         <v>12.503649635036496</v>
       </c>
     </row>
-    <row r="548" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>3</v>
       </c>
@@ -34806,7 +34783,7 @@
         <v>9.4233576642335777</v>
       </c>
     </row>
-    <row r="549" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>3</v>
       </c>
@@ -34856,7 +34833,7 @@
         <v>-9.8832116788321116</v>
       </c>
     </row>
-    <row r="550" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>3</v>
       </c>
@@ -34912,7 +34889,7 @@
         <v>12.583941605839414</v>
       </c>
     </row>
-    <row r="551" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>3</v>
       </c>
@@ -34971,7 +34948,7 @@
         <v>-2.0510948905109458</v>
       </c>
     </row>
-    <row r="552" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>3</v>
       </c>
@@ -34985,9 +34962,6 @@
         <v>22</v>
       </c>
       <c r="F552" t="s">
-        <v>341</v>
-      </c>
-      <c r="G552" t="s">
         <v>341</v>
       </c>
       <c r="H552" s="2">
@@ -35045,7 +35019,7 @@
         <v>-3.7153284671532845</v>
       </c>
     </row>
-    <row r="553" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>3</v>
       </c>
@@ -35098,7 +35072,7 @@
         <v>-9.2116788321167888</v>
       </c>
     </row>
-    <row r="554" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>3</v>
       </c>
@@ -35160,7 +35134,7 @@
         <v>-4.9854014598540175</v>
       </c>
     </row>
-    <row r="555" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>3</v>
       </c>
@@ -35216,7 +35190,7 @@
         <v>-5.1532846715328446</v>
       </c>
     </row>
-    <row r="556" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>3</v>
       </c>
@@ -35278,7 +35252,7 @@
         <v>-7.4963503649635044</v>
       </c>
     </row>
-    <row r="557" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>3</v>
       </c>
@@ -35340,7 +35314,7 @@
         <v>2.8759124087591275</v>
       </c>
     </row>
-    <row r="558" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>3</v>
       </c>
@@ -35402,7 +35376,7 @@
         <v>-11.627737226277375</v>
       </c>
     </row>
-    <row r="559" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>3</v>
       </c>
@@ -35467,7 +35441,7 @@
         <v>1.3576642335766422</v>
       </c>
     </row>
-    <row r="560" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>3</v>
       </c>
@@ -35523,7 +35497,7 @@
         <v>13.773722627737225</v>
       </c>
     </row>
-    <row r="561" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>3</v>
       </c>
@@ -35576,7 +35550,7 @@
         <v>8.9708029197080279</v>
       </c>
     </row>
-    <row r="562" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>3</v>
       </c>
@@ -35638,7 +35612,7 @@
         <v>-1.89051094890511</v>
       </c>
     </row>
-    <row r="563" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>3</v>
       </c>
@@ -35691,7 +35665,7 @@
         <v>2.905109489051096</v>
       </c>
     </row>
-    <row r="564" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>3</v>
       </c>
@@ -35747,7 +35721,7 @@
         <v>5.3138686131386876</v>
       </c>
     </row>
-    <row r="565" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>3</v>
       </c>
@@ -35803,7 +35777,7 @@
         <v>0.17518248175182549</v>
       </c>
     </row>
-    <row r="566" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -35862,7 +35836,7 @@
         <v>-7.3029197080291972</v>
       </c>
     </row>
-    <row r="567" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -35930,7 +35904,7 @@
         <v>0.68613138686131236</v>
       </c>
     </row>
-    <row r="568" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>3</v>
       </c>
@@ -35992,7 +35966,7 @@
         <v>-14.167883211678834</v>
       </c>
     </row>
-    <row r="569" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>3</v>
       </c>
@@ -36060,7 +36034,7 @@
         <v>-10.288321167883211</v>
       </c>
     </row>
-    <row r="570" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>3</v>
       </c>
@@ -36122,7 +36096,7 @@
         <v>-22.832116788321166</v>
       </c>
     </row>
-    <row r="571" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>3</v>
       </c>
@@ -36178,7 +36152,7 @@
         <v>-7.4525547445255498</v>
       </c>
     </row>
-    <row r="572" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>3</v>
       </c>
@@ -36231,7 +36205,7 @@
         <v>-12.029197080291972</v>
       </c>
     </row>
-    <row r="573" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>3</v>
       </c>
@@ -36293,7 +36267,7 @@
         <v>-10.897810218978101</v>
       </c>
     </row>
-    <row r="574" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3</v>
       </c>
@@ -36343,7 +36317,7 @@
         <v>3.2116788321167888</v>
       </c>
     </row>
-    <row r="575" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>3</v>
       </c>
@@ -36393,7 +36367,7 @@
         <v>-8.8321167883211693</v>
       </c>
     </row>
-    <row r="576" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>3</v>
       </c>
@@ -36446,7 +36420,7 @@
         <v>-15.744525547445257</v>
       </c>
     </row>
-    <row r="577" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>3</v>
       </c>
@@ -36499,7 +36473,7 @@
         <v>-24.649635036496349</v>
       </c>
     </row>
-    <row r="578" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>3</v>
       </c>
@@ -36549,7 +36523,7 @@
         <v>-32.423357664233578</v>
       </c>
     </row>
-    <row r="579" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>3</v>
       </c>
@@ -36593,7 +36567,7 @@
         <v>-48.583941605839414</v>
       </c>
     </row>
-    <row r="580" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>3</v>
       </c>
@@ -36652,7 +36626,7 @@
         <v>14.036496350364963</v>
       </c>
     </row>
-    <row r="581" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>3</v>
       </c>
@@ -36714,7 +36688,7 @@
         <v>10.919708029197082</v>
       </c>
     </row>
-    <row r="582" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>3</v>
       </c>
@@ -36788,7 +36762,7 @@
         <v>28.616788321167885</v>
       </c>
     </row>
-    <row r="583" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>3</v>
       </c>
@@ -36865,7 +36839,7 @@
         <v>10.653284671532845</v>
       </c>
     </row>
-    <row r="584" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>3</v>
       </c>
@@ -36939,7 +36913,7 @@
         <v>6.3394160583941641</v>
       </c>
     </row>
-    <row r="585" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>3</v>
       </c>
@@ -36998,7 +36972,7 @@
         <v>-16.686131386861312</v>
       </c>
     </row>
-    <row r="586" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3</v>
       </c>
@@ -37057,7 +37031,7 @@
         <v>8.8467153284671554</v>
       </c>
     </row>
-    <row r="587" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -37116,7 +37090,7 @@
         <v>11.021897810218981</v>
       </c>
     </row>
-    <row r="588" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>3</v>
       </c>
@@ -37184,7 +37158,7 @@
         <v>5.6313868613138709</v>
       </c>
     </row>
-    <row r="589" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>3</v>
       </c>
@@ -37240,7 +37214,7 @@
         <v>-10.700729927007302</v>
       </c>
     </row>
-    <row r="590" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>3</v>
       </c>
@@ -37254,9 +37228,6 @@
         <v>31</v>
       </c>
       <c r="F590" t="s">
-        <v>341</v>
-      </c>
-      <c r="G590" t="s">
         <v>341</v>
       </c>
       <c r="H590" s="2">
@@ -37305,7 +37276,7 @@
         <v>-5.299270072992698</v>
       </c>
     </row>
-    <row r="591" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>3</v>
       </c>
@@ -37364,7 +37335,7 @@
         <v>4.810218978102192</v>
       </c>
     </row>
-    <row r="592" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>3</v>
       </c>
@@ -37414,7 +37385,7 @@
         <v>-13.868613138686129</v>
       </c>
     </row>
-    <row r="593" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>3</v>
       </c>
@@ -37482,7 +37453,7 @@
         <v>-2.9489051094890506</v>
       </c>
     </row>
-    <row r="594" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>3</v>
       </c>
@@ -37547,7 +37518,7 @@
         <v>-1.4817518248175148</v>
       </c>
     </row>
-    <row r="595" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>3</v>
       </c>
@@ -37603,7 +37574,7 @@
         <v>-5.189781021897808</v>
       </c>
     </row>
-    <row r="596" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>3</v>
       </c>
@@ -37662,7 +37633,7 @@
         <v>-17.985401459854018</v>
       </c>
     </row>
-    <row r="597" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>3</v>
       </c>
@@ -37724,7 +37695,7 @@
         <v>-6.2773722627737243</v>
       </c>
     </row>
-    <row r="598" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>3</v>
       </c>
@@ -37774,7 +37745,7 @@
         <v>0.69343065693430361</v>
       </c>
     </row>
-    <row r="599" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>3</v>
       </c>
@@ -37827,7 +37798,7 @@
         <v>-10.094890510948908</v>
       </c>
     </row>
-    <row r="600" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>3</v>
       </c>
@@ -37877,7 +37848,7 @@
         <v>13.978102189781023</v>
       </c>
     </row>
-    <row r="601" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>3</v>
       </c>
@@ -37933,7 +37904,7 @@
         <v>-13.131386861313871</v>
       </c>
     </row>
-    <row r="602" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>3</v>
       </c>
@@ -37995,7 +37966,7 @@
         <v>-9.4890510948903994E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>3</v>
       </c>
@@ -38048,7 +38019,7 @@
         <v>1.8248175182481745</v>
       </c>
     </row>
-    <row r="604" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>3</v>
       </c>
@@ -38104,7 +38075,7 @@
         <v>7.8248175182481745</v>
       </c>
     </row>
-    <row r="605" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>3</v>
       </c>
@@ -38166,7 +38137,7 @@
         <v>-5.5985401459854032</v>
       </c>
     </row>
-    <row r="606" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>3</v>
       </c>
@@ -38219,7 +38190,7 @@
         <v>4.3722627737226283</v>
       </c>
     </row>
-    <row r="607" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>3</v>
       </c>
@@ -38272,7 +38243,7 @@
         <v>-13.343065693430656</v>
       </c>
     </row>
-    <row r="608" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>3</v>
       </c>
@@ -38325,7 +38296,7 @@
         <v>8.1897810218978115</v>
       </c>
     </row>
-    <row r="609" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>3</v>
       </c>
@@ -38378,7 +38349,7 @@
         <v>-5.8321167883211693</v>
       </c>
     </row>
-    <row r="610" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>3</v>
       </c>
@@ -38425,7 +38396,7 @@
         <v>-17.518248175182485</v>
       </c>
     </row>
-    <row r="611" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>3</v>
       </c>
@@ -38439,9 +38410,6 @@
         <v>23</v>
       </c>
       <c r="F611" t="s">
-        <v>341</v>
-      </c>
-      <c r="G611" t="s">
         <v>341</v>
       </c>
       <c r="H611" s="2">
@@ -38487,7 +38455,7 @@
         <v>-12.613138686131386</v>
       </c>
     </row>
-    <row r="612" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>3</v>
       </c>
@@ -38549,7 +38517,7 @@
         <v>-19.401459854014597</v>
       </c>
     </row>
-    <row r="613" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>3</v>
       </c>
@@ -38596,7 +38564,7 @@
         <v>-23.532846715328468</v>
       </c>
     </row>
-    <row r="614" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>3</v>
       </c>
@@ -38658,7 +38626,7 @@
         <v>30.992700729927009</v>
       </c>
     </row>
-    <row r="615" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>3</v>
       </c>
@@ -38732,7 +38700,7 @@
         <v>12.248175182481752</v>
       </c>
     </row>
-    <row r="616" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>3</v>
       </c>
@@ -38803,7 +38771,7 @@
         <v>-7.4124087591240908</v>
       </c>
     </row>
-    <row r="617" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>3</v>
       </c>
@@ -38865,7 +38833,7 @@
         <v>0.62043795620437692</v>
       </c>
     </row>
-    <row r="618" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>3</v>
       </c>
@@ -38933,7 +38901,7 @@
         <v>-6.4306569343065689</v>
       </c>
     </row>
-    <row r="619" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>3</v>
       </c>
@@ -38992,7 +38960,7 @@
         <v>-2.5985401459854032</v>
       </c>
     </row>
-    <row r="620" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>3</v>
       </c>
@@ -39045,7 +39013,7 @@
         <v>-14.788321167883211</v>
       </c>
     </row>
-    <row r="621" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>3</v>
       </c>
@@ -39116,7 +39084,7 @@
         <v>-16.613138686131386</v>
       </c>
     </row>
-    <row r="622" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>3</v>
       </c>
@@ -39181,7 +39149,7 @@
         <v>9.6934306569343072</v>
       </c>
     </row>
-    <row r="623" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>3</v>
       </c>
@@ -39243,7 +39211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>3</v>
       </c>
@@ -39308,7 +39276,7 @@
         <v>2.6240875912408761</v>
       </c>
     </row>
-    <row r="625" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>3</v>
       </c>
@@ -39376,7 +39344,7 @@
         <v>21.211678832116789</v>
       </c>
     </row>
-    <row r="626" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>3</v>
       </c>
@@ -39435,7 +39403,7 @@
         <v>-8.1277372262773753</v>
       </c>
     </row>
-    <row r="627" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>3</v>
       </c>
@@ -39494,7 +39462,7 @@
         <v>0.35766423357664223</v>
       </c>
     </row>
-    <row r="628" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>3</v>
       </c>
@@ -39565,7 +39533,7 @@
         <v>2.1313868613138709</v>
       </c>
     </row>
-    <row r="629" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>3</v>
       </c>
@@ -39624,7 +39592,7 @@
         <v>5.7518248175182478</v>
       </c>
     </row>
-    <row r="630" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>3</v>
       </c>
@@ -39683,7 +39651,7 @@
         <v>-15.335766423357661</v>
       </c>
     </row>
-    <row r="631" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>3</v>
       </c>
@@ -39736,7 +39704,7 @@
         <v>2.810218978102192</v>
       </c>
     </row>
-    <row r="632" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>3</v>
       </c>
@@ -39789,7 +39757,7 @@
         <v>-5.0583941605839442</v>
       </c>
     </row>
-    <row r="633" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>3</v>
       </c>
@@ -39851,7 +39819,7 @@
         <v>-3.540145985401459</v>
       </c>
     </row>
-    <row r="634" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>3</v>
       </c>
@@ -39910,7 +39878,7 @@
         <v>-2.5474452554744538</v>
       </c>
     </row>
-    <row r="635" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>3</v>
       </c>
@@ -39969,7 +39937,7 @@
         <v>-8.5182481751824817</v>
       </c>
     </row>
-    <row r="636" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>3</v>
       </c>
@@ -40031,7 +39999,7 @@
         <v>-16.992700729927009</v>
       </c>
     </row>
-    <row r="637" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>3</v>
       </c>
@@ -40093,7 +40061,7 @@
         <v>-21.430656934306569</v>
       </c>
     </row>
-    <row r="638" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>3</v>
       </c>
@@ -40152,7 +40120,7 @@
         <v>-6.8248175182481745</v>
       </c>
     </row>
-    <row r="639" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>3</v>
       </c>
@@ -40208,7 +40176,7 @@
         <v>1.2335766423357661</v>
       </c>
     </row>
-    <row r="640" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>3</v>
       </c>
@@ -40276,7 +40244,7 @@
         <v>-30.386861313868614</v>
       </c>
     </row>
-    <row r="641" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>3</v>
       </c>
@@ -40332,7 +40300,7 @@
         <v>-13.029197080291972</v>
       </c>
     </row>
-    <row r="642" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>3</v>
       </c>
@@ -40391,7 +40359,7 @@
         <v>-0.72992700729927051</v>
       </c>
     </row>
-    <row r="643" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>3</v>
       </c>
@@ -40447,7 +40415,7 @@
         <v>-36.970802919708028</v>
       </c>
     </row>
-    <row r="644" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>3</v>
       </c>
@@ -40515,7 +40483,7 @@
         <v>-26.193430656934304</v>
       </c>
     </row>
-    <row r="645" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>3</v>
       </c>
@@ -40565,7 +40533,7 @@
         <v>-25.299270072992698</v>
       </c>
     </row>
-    <row r="646" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>3</v>
       </c>
@@ -40615,7 +40583,7 @@
         <v>-13.189781021897812</v>
       </c>
     </row>
-    <row r="647" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>3</v>
       </c>
@@ -40668,7 +40636,7 @@
         <v>-27.693430656934304</v>
       </c>
     </row>
-    <row r="648" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>3</v>
       </c>
@@ -40745,7 +40713,7 @@
         <v>21.919708029197082</v>
       </c>
     </row>
-    <row r="649" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>3</v>
       </c>
@@ -40819,7 +40787,7 @@
         <v>12.697080291970806</v>
       </c>
     </row>
-    <row r="650" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>3</v>
       </c>
@@ -40887,7 +40855,7 @@
         <v>5.1605839416058359</v>
       </c>
     </row>
-    <row r="651" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>3</v>
       </c>
@@ -40952,7 +40920,7 @@
         <v>-7.7518248175182478</v>
       </c>
     </row>
-    <row r="652" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>3</v>
       </c>
@@ -41008,7 +40976,7 @@
         <v>7.8540145985401466</v>
       </c>
     </row>
-    <row r="653" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>3</v>
       </c>
@@ -41076,7 +41044,7 @@
         <v>6.1204379562043769</v>
       </c>
     </row>
-    <row r="654" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>3</v>
       </c>
@@ -41129,7 +41097,7 @@
         <v>17.394160583941606</v>
       </c>
     </row>
-    <row r="655" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>3</v>
       </c>
@@ -41182,7 +41150,7 @@
         <v>-0.17518248175182549</v>
       </c>
     </row>
-    <row r="656" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>3</v>
       </c>
@@ -41241,7 +41209,7 @@
         <v>-2.7737226277372287</v>
       </c>
     </row>
-    <row r="657" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>3</v>
       </c>
@@ -41303,7 +41271,7 @@
         <v>6.0875912408759127</v>
       </c>
     </row>
-    <row r="658" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>3</v>
       </c>
@@ -41359,7 +41327,7 @@
         <v>-0.18978102189780799</v>
       </c>
     </row>
-    <row r="659" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>3</v>
       </c>
@@ -41415,7 +41383,7 @@
         <v>5.1313868613138709</v>
       </c>
     </row>
-    <row r="660" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>3</v>
       </c>
@@ -41486,7 +41454,7 @@
         <v>-0.83576642335766138</v>
       </c>
     </row>
-    <row r="661" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>3</v>
       </c>
@@ -41539,7 +41507,7 @@
         <v>1.6131386861313857</v>
       </c>
     </row>
-    <row r="662" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>3</v>
       </c>
@@ -41598,7 +41566,7 @@
         <v>-11.824817518248175</v>
       </c>
     </row>
-    <row r="663" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>3</v>
       </c>
@@ -41654,7 +41622,7 @@
         <v>-14.963503649635037</v>
       </c>
     </row>
-    <row r="664" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>3</v>
       </c>
@@ -41704,7 +41672,7 @@
         <v>-5.5328467153284677</v>
       </c>
     </row>
-    <row r="665" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>3</v>
       </c>
@@ -41763,7 +41731,7 @@
         <v>-5.0291970802919721</v>
       </c>
     </row>
-    <row r="666" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3</v>
       </c>
@@ -41819,7 +41787,7 @@
         <v>-2.8248175182481745</v>
       </c>
     </row>
-    <row r="667" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>3</v>
       </c>
@@ -41869,7 +41837,7 @@
         <v>3.4817518248175183</v>
       </c>
     </row>
-    <row r="668" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>3</v>
       </c>
@@ -41925,7 +41893,7 @@
         <v>-25.67153284671533</v>
       </c>
     </row>
-    <row r="669" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>3</v>
       </c>
@@ -41984,7 +41952,7 @@
         <v>-7.0875912408759092</v>
       </c>
     </row>
-    <row r="670" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>3</v>
       </c>
@@ -42034,7 +42002,7 @@
         <v>-15.364963503649633</v>
       </c>
     </row>
-    <row r="671" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>3</v>
       </c>
@@ -42096,7 +42064,7 @@
         <v>-8.2116788321167888</v>
       </c>
     </row>
-    <row r="672" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>3</v>
       </c>
@@ -42161,7 +42129,7 @@
         <v>-11.116788321167881</v>
       </c>
     </row>
-    <row r="673" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>3</v>
       </c>
@@ -42217,7 +42185,7 @@
         <v>4.2116788321167888</v>
       </c>
     </row>
-    <row r="674" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>3</v>
       </c>
@@ -42270,7 +42238,7 @@
         <v>1.5328467153284677</v>
       </c>
     </row>
-    <row r="675" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>3</v>
       </c>
@@ -42329,7 +42297,7 @@
         <v>-29.518248175182485</v>
       </c>
     </row>
-    <row r="676" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>3</v>
       </c>
@@ -42385,7 +42353,7 @@
         <v>-17.817518248175183</v>
       </c>
     </row>
-    <row r="677" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>3</v>
       </c>
@@ -42447,7 +42415,7 @@
         <v>-33.970802919708028</v>
       </c>
     </row>
-    <row r="678" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>3</v>
       </c>
@@ -42497,7 +42465,7 @@
         <v>-11.248175182481752</v>
       </c>
     </row>
-    <row r="679" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>3</v>
       </c>
@@ -42550,7 +42518,7 @@
         <v>-11.67153284671533</v>
       </c>
     </row>
-    <row r="680" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>3</v>
       </c>
@@ -42612,7 +42580,7 @@
         <v>-23.503649635036496</v>
       </c>
     </row>
-    <row r="681" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3</v>
       </c>
@@ -42674,7 +42642,7 @@
         <v>-24.518248175182485</v>
       </c>
     </row>
-    <row r="682" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>3</v>
       </c>
@@ -42745,7 +42713,7 @@
         <v>21.981751824817515</v>
       </c>
     </row>
-    <row r="683" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>3</v>
       </c>
@@ -42819,7 +42787,7 @@
         <v>-14.416058394160586</v>
       </c>
     </row>
-    <row r="684" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>3</v>
       </c>
@@ -42878,7 +42846,7 @@
         <v>13.788321167883211</v>
       </c>
     </row>
-    <row r="685" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>3</v>
       </c>
@@ -42955,7 +42923,7 @@
         <v>-5.350364963503651</v>
       </c>
     </row>
-    <row r="686" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>3</v>
       </c>
@@ -43014,7 +42982,7 @@
         <v>5.1642335766423386</v>
       </c>
     </row>
-    <row r="687" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>3</v>
       </c>
@@ -43082,7 +43050,7 @@
         <v>10.740875912408757</v>
       </c>
     </row>
-    <row r="688" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>3</v>
       </c>
@@ -43135,7 +43103,7 @@
         <v>19.386861313868614</v>
       </c>
     </row>
-    <row r="689" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>3</v>
       </c>
@@ -43194,7 +43162,7 @@
         <v>-2.4744525547445235</v>
       </c>
     </row>
-    <row r="690" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>3</v>
       </c>
@@ -43259,7 +43227,7 @@
         <v>7.6350364963503665</v>
       </c>
     </row>
-    <row r="691" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>3</v>
       </c>
@@ -43327,7 +43295,7 @@
         <v>-2.1167883211678813</v>
       </c>
     </row>
-    <row r="692" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>3</v>
       </c>
@@ -43398,7 +43366,7 @@
         <v>-11.854014598540147</v>
       </c>
     </row>
-    <row r="693" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>3</v>
       </c>
@@ -43460,7 +43428,7 @@
         <v>3.4014598540145968</v>
       </c>
     </row>
-    <row r="694" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>3</v>
       </c>
@@ -43516,7 +43484,7 @@
         <v>5.3722627737226247</v>
       </c>
     </row>
-    <row r="695" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>3</v>
       </c>
@@ -43563,7 +43531,7 @@
         <v>10.48905109489051</v>
       </c>
     </row>
-    <row r="696" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>3</v>
       </c>
@@ -43625,7 +43593,7 @@
         <v>2.1751824817518255</v>
       </c>
     </row>
-    <row r="697" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>3</v>
       </c>
@@ -43687,7 +43655,7 @@
         <v>0.35036496350365098</v>
       </c>
     </row>
-    <row r="698" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>3</v>
       </c>
@@ -43749,7 +43717,7 @@
         <v>-4.3868613138686143</v>
       </c>
     </row>
-    <row r="699" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>3</v>
       </c>
@@ -43814,7 +43782,7 @@
         <v>-20.357664233576642</v>
       </c>
     </row>
-    <row r="700" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>3</v>
       </c>
@@ -43864,7 +43832,7 @@
         <v>1.4233576642335777</v>
       </c>
     </row>
-    <row r="701" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>3</v>
       </c>
@@ -43917,7 +43885,7 @@
         <v>14.058394160583941</v>
       </c>
     </row>
-    <row r="702" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>3</v>
       </c>
@@ -43973,7 +43941,7 @@
         <v>-5.7664233576642303</v>
       </c>
     </row>
-    <row r="703" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>3</v>
       </c>
@@ -44032,7 +44000,7 @@
         <v>3.8357664233576649</v>
       </c>
     </row>
-    <row r="704" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>3</v>
       </c>
@@ -44094,7 +44062,7 @@
         <v>1.0218978102189773</v>
       </c>
     </row>
-    <row r="705" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>3</v>
       </c>
@@ -44156,7 +44124,7 @@
         <v>-20.321167883211679</v>
       </c>
     </row>
-    <row r="706" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>3</v>
       </c>
@@ -44221,7 +44189,7 @@
         <v>-16.518248175182485</v>
       </c>
     </row>
-    <row r="707" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>3</v>
       </c>
@@ -44286,7 +44254,7 @@
         <v>-7.0693430656934311</v>
       </c>
     </row>
-    <row r="708" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>3</v>
       </c>
@@ -44339,7 +44307,7 @@
         <v>9.1386861313868621</v>
       </c>
     </row>
-    <row r="709" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>3</v>
       </c>
@@ -44386,7 +44354,7 @@
         <v>-2.649635036496349</v>
       </c>
     </row>
-    <row r="710" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>3</v>
       </c>
@@ -44448,7 +44416,7 @@
         <v>-8.1021897810218988</v>
       </c>
     </row>
-    <row r="711" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>3</v>
       </c>
@@ -44501,7 +44469,7 @@
         <v>-24.306569343065696</v>
       </c>
     </row>
-    <row r="712" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>3</v>
       </c>
@@ -44545,7 +44513,7 @@
         <v>-7.7883211678832112</v>
       </c>
     </row>
-    <row r="713" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>3</v>
       </c>
@@ -44595,7 +44563,7 @@
         <v>-22.175182481751825</v>
       </c>
     </row>
-    <row r="714" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>3</v>
       </c>
@@ -44645,7 +44613,7 @@
         <v>-19.744525547445257</v>
       </c>
     </row>
-    <row r="715" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>3</v>
       </c>
@@ -44716,7 +44684,7 @@
         <v>29.948905109489054</v>
       </c>
     </row>
-    <row r="716" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>3</v>
       </c>
@@ -44781,7 +44749,7 @@
         <v>-0.34306569343065973</v>
       </c>
     </row>
-    <row r="717" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>3</v>
       </c>
@@ -44843,7 +44811,7 @@
         <v>12.094890510948908</v>
       </c>
     </row>
-    <row r="718" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>3</v>
       </c>
@@ -44970,7 +44938,7 @@
         <v>20.817518248175183</v>
       </c>
     </row>
-    <row r="720" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>3</v>
       </c>
@@ -45029,7 +44997,7 @@
         <v>4.4890510948905131</v>
       </c>
     </row>
-    <row r="721" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>3</v>
       </c>
@@ -45100,7 +45068,7 @@
         <v>-10.751824817518248</v>
       </c>
     </row>
-    <row r="722" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>3</v>
       </c>
@@ -45162,7 +45130,7 @@
         <v>10.010948905109487</v>
       </c>
     </row>
-    <row r="723" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>3</v>
       </c>
@@ -45227,7 +45195,7 @@
         <v>6.7299270072992705</v>
       </c>
     </row>
-    <row r="724" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>3</v>
       </c>
@@ -45286,7 +45254,7 @@
         <v>-0.24817518248175219</v>
       </c>
     </row>
-    <row r="725" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>3</v>
       </c>
@@ -45348,7 +45316,7 @@
         <v>17.664233576642339</v>
       </c>
     </row>
-    <row r="726" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>3</v>
       </c>
@@ -45410,7 +45378,7 @@
         <v>-4.4306569343065689</v>
       </c>
     </row>
-    <row r="727" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3</v>
       </c>
@@ -45463,7 +45431,7 @@
         <v>9.540145985401459</v>
       </c>
     </row>
-    <row r="728" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3</v>
       </c>
@@ -45531,7 +45499,7 @@
         <v>5.9963503649635044</v>
       </c>
     </row>
-    <row r="729" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>3</v>
       </c>
@@ -45587,7 +45555,7 @@
         <v>7.7956204379562024</v>
       </c>
     </row>
-    <row r="730" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3</v>
       </c>
@@ -45643,7 +45611,7 @@
         <v>4.2481751824817522</v>
       </c>
     </row>
-    <row r="731" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>3</v>
       </c>
@@ -45699,7 +45667,7 @@
         <v>-4.2627737226277347</v>
       </c>
     </row>
-    <row r="732" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3</v>
       </c>
@@ -45752,7 +45720,7 @@
         <v>-0.77372262773722866</v>
       </c>
     </row>
-    <row r="733" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>3</v>
       </c>
@@ -45814,7 +45782,7 @@
         <v>11.700729927007298</v>
       </c>
     </row>
-    <row r="734" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3</v>
       </c>
@@ -45879,7 +45847,7 @@
         <v>4.4817518248175183</v>
       </c>
     </row>
-    <row r="735" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>3</v>
       </c>
@@ -45938,7 +45906,7 @@
         <v>-8.7518248175182478</v>
       </c>
     </row>
-    <row r="736" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>3</v>
       </c>
@@ -46009,7 +45977,7 @@
         <v>-9.6350364963503665</v>
       </c>
     </row>
-    <row r="737" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>3</v>
       </c>
@@ -46065,7 +46033,7 @@
         <v>-7.4963503649635044</v>
       </c>
     </row>
-    <row r="738" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>3</v>
       </c>
@@ -46127,7 +46095,7 @@
         <v>-19.204379562043798</v>
       </c>
     </row>
-    <row r="739" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>3</v>
       </c>
@@ -46192,7 +46160,7 @@
         <v>-12.613138686131386</v>
       </c>
     </row>
-    <row r="740" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>3</v>
       </c>
@@ -46248,7 +46216,7 @@
         <v>-19.21897810218978</v>
       </c>
     </row>
-    <row r="741" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>3</v>
       </c>
@@ -46301,7 +46269,7 @@
         <v>-9.0437956204379546</v>
       </c>
     </row>
-    <row r="742" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>3</v>
       </c>
@@ -46351,7 +46319,7 @@
         <v>-17.693430656934304</v>
       </c>
     </row>
-    <row r="743" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3</v>
       </c>
@@ -46407,7 +46375,7 @@
         <v>-12.923357664233578</v>
       </c>
     </row>
-    <row r="744" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3</v>
       </c>
@@ -46463,7 +46431,7 @@
         <v>-10.386861313868614</v>
       </c>
     </row>
-    <row r="745" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>3</v>
       </c>
@@ -46525,7 +46493,7 @@
         <v>-27.138686131386862</v>
       </c>
     </row>
-    <row r="746" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>3</v>
       </c>
@@ -46540,9 +46508,6 @@
       </c>
       <c r="F746" t="s">
         <v>342</v>
-      </c>
-      <c r="G746" t="s">
-        <v>341</v>
       </c>
       <c r="H746" s="2">
         <v>417000</v>
@@ -46578,7 +46543,7 @@
         <v>-21.437956204379564</v>
       </c>
     </row>
-    <row r="747" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>3</v>
       </c>
@@ -46628,7 +46593,7 @@
         <v>-38.182481751824817</v>
       </c>
     </row>
-    <row r="748" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>3</v>
       </c>
@@ -46705,7 +46670,7 @@
         <v>-2.7919708029197068</v>
       </c>
     </row>
-    <row r="749" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>3</v>
       </c>
@@ -46761,7 +46726,7 @@
         <v>7.6350364963503665</v>
       </c>
     </row>
-    <row r="750" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>3</v>
       </c>
@@ -46820,7 +46785,7 @@
         <v>-4.4525547445255498</v>
       </c>
     </row>
-    <row r="751" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3</v>
       </c>
@@ -46888,7 +46853,7 @@
         <v>-22.018248175182485</v>
       </c>
     </row>
-    <row r="752" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>3</v>
       </c>
@@ -46944,7 +46909,7 @@
         <v>3.3540145985401466</v>
       </c>
     </row>
-    <row r="753" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>3</v>
       </c>
@@ -47018,7 +46983,7 @@
         <v>-11.879562043795623</v>
       </c>
     </row>
-    <row r="754" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>3</v>
       </c>
@@ -47095,7 +47060,7 @@
         <v>-9.9890510948905131</v>
       </c>
     </row>
-    <row r="755" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>3</v>
       </c>
@@ -47166,7 +47131,7 @@
         <v>-2.9489051094890506</v>
       </c>
     </row>
-    <row r="756" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3</v>
       </c>
@@ -47225,7 +47190,7 @@
         <v>-3.3576642335766422</v>
       </c>
     </row>
-    <row r="757" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>3</v>
       </c>
@@ -47290,7 +47255,7 @@
         <v>-3.2846715328467155</v>
       </c>
     </row>
-    <row r="758" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3</v>
       </c>
@@ -47361,7 +47326,7 @@
         <v>-14.025547445255476</v>
       </c>
     </row>
-    <row r="759" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>3</v>
       </c>
@@ -47420,7 +47385,7 @@
         <v>-17.510948905109487</v>
       </c>
     </row>
-    <row r="760" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>3</v>
       </c>
@@ -47485,7 +47450,7 @@
         <v>-8.3430656934306562</v>
       </c>
     </row>
-    <row r="761" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>3</v>
       </c>
@@ -47544,7 +47509,7 @@
         <v>0.86131386861313786</v>
       </c>
     </row>
-    <row r="762" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>3</v>
       </c>
@@ -47609,7 +47574,7 @@
         <v>-20.313868613138688</v>
       </c>
     </row>
-    <row r="763" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>3</v>
       </c>
@@ -47674,7 +47639,7 @@
         <v>-4.2627737226277347</v>
       </c>
     </row>
-    <row r="764" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>3</v>
       </c>
@@ -47733,7 +47698,7 @@
         <v>-14.861313868613138</v>
       </c>
     </row>
-    <row r="765" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>3</v>
       </c>
@@ -47792,7 +47757,7 @@
         <v>-9.7810218978102199</v>
       </c>
     </row>
-    <row r="766" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>3</v>
       </c>
@@ -47845,7 +47810,7 @@
         <v>-12.408759124087588</v>
       </c>
     </row>
-    <row r="767" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>3</v>
       </c>
@@ -47901,7 +47866,7 @@
         <v>-11.854014598540147</v>
       </c>
     </row>
-    <row r="768" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>3</v>
       </c>
@@ -47963,7 +47928,7 @@
         <v>-18.569343065693431</v>
       </c>
     </row>
-    <row r="769" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>3</v>
       </c>
@@ -48013,7 +47978,7 @@
         <v>9.8978102189781012</v>
       </c>
     </row>
-    <row r="770" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>3</v>
       </c>
@@ -48066,7 +48031,7 @@
         <v>-3.1459854014598534</v>
       </c>
     </row>
-    <row r="771" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>3</v>
       </c>
@@ -48122,7 +48087,7 @@
         <v>-20.087591240875909</v>
       </c>
     </row>
-    <row r="772" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>3</v>
       </c>
@@ -48184,7 +48149,7 @@
         <v>4.204379562043794</v>
       </c>
     </row>
-    <row r="773" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>3</v>
       </c>
@@ -48243,7 +48208,7 @@
         <v>-5.7883211678832112</v>
       </c>
     </row>
-    <row r="774" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>3</v>
       </c>
@@ -48293,7 +48258,7 @@
         <v>-6.7591240875912426</v>
       </c>
     </row>
-    <row r="775" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>3</v>
       </c>
@@ -48358,7 +48323,7 @@
         <v>-12.897810218978101</v>
       </c>
     </row>
-    <row r="776" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>3</v>
       </c>
@@ -48417,7 +48382,7 @@
         <v>-18.802919708029194</v>
       </c>
     </row>
-    <row r="777" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>3</v>
       </c>
@@ -48470,7 +48435,7 @@
         <v>-13.029197080291972</v>
       </c>
     </row>
-    <row r="778" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>3</v>
       </c>
@@ -48523,7 +48488,7 @@
         <v>-9.7883211678832112</v>
       </c>
     </row>
-    <row r="779" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>3</v>
       </c>
@@ -48576,7 +48541,7 @@
         <v>-16.751824817518248</v>
       </c>
     </row>
-    <row r="780" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>3</v>
       </c>
@@ -48629,7 +48594,7 @@
         <v>-12.788321167883211</v>
       </c>
     </row>
-    <row r="781" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>3</v>
       </c>
@@ -48673,7 +48638,7 @@
         <v>-27.883211678832119</v>
       </c>
     </row>
-    <row r="782" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>3</v>
       </c>
@@ -48738,7 +48703,7 @@
         <v>8.9051094890510925</v>
       </c>
     </row>
-    <row r="783" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>3</v>
       </c>
@@ -48797,7 +48762,7 @@
         <v>21.072992700729927</v>
       </c>
     </row>
-    <row r="784" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>3</v>
       </c>
@@ -48862,7 +48827,7 @@
         <v>0.30656934306569639</v>
       </c>
     </row>
-    <row r="785" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>3</v>
       </c>
@@ -48930,7 +48895,7 @@
         <v>-12.430656934306569</v>
       </c>
     </row>
-    <row r="786" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>3</v>
       </c>
@@ -49007,7 +48972,7 @@
         <v>15.996350364963504</v>
       </c>
     </row>
-    <row r="787" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>3</v>
       </c>
@@ -49021,9 +48986,6 @@
         <v>27</v>
       </c>
       <c r="F787" t="s">
-        <v>341</v>
-      </c>
-      <c r="G787" t="s">
         <v>341</v>
       </c>
       <c r="H787" s="2">
@@ -49075,7 +49037,7 @@
         <v>11.832116788321166</v>
       </c>
     </row>
-    <row r="788" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>3</v>
       </c>
@@ -49146,7 +49108,7 @@
         <v>-5.60948905109489</v>
       </c>
     </row>
-    <row r="789" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>3</v>
       </c>
@@ -49202,7 +49164,7 @@
         <v>3.7518248175182478</v>
       </c>
     </row>
-    <row r="790" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>3</v>
       </c>
@@ -49261,7 +49223,7 @@
         <v>9.3576642335766422</v>
       </c>
     </row>
-    <row r="791" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>3</v>
       </c>
@@ -49329,7 +49291,7 @@
         <v>-0.18248175182481674</v>
       </c>
     </row>
-    <row r="792" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>3</v>
       </c>
@@ -49388,7 +49350,7 @@
         <v>1.6642335766423386</v>
       </c>
     </row>
-    <row r="793" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>3</v>
       </c>
@@ -49447,7 +49409,7 @@
         <v>0.18978102189780799</v>
       </c>
     </row>
-    <row r="794" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>3</v>
       </c>
@@ -49506,7 +49468,7 @@
         <v>5.4890510948905096</v>
       </c>
     </row>
-    <row r="795" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>3</v>
       </c>
@@ -49562,7 +49524,7 @@
         <v>-8.4160583941605864</v>
       </c>
     </row>
-    <row r="796" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>3</v>
       </c>
@@ -49618,7 +49580,7 @@
         <v>2.3430656934306562</v>
       </c>
     </row>
-    <row r="797" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>3</v>
       </c>
@@ -49680,7 +49642,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="798" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>3</v>
       </c>
@@ -49742,7 +49704,7 @@
         <v>-15.401459854014597</v>
       </c>
     </row>
-    <row r="799" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>3</v>
       </c>
@@ -49801,7 +49763,7 @@
         <v>4.204379562043794</v>
       </c>
     </row>
-    <row r="800" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>3</v>
       </c>
@@ -49854,7 +49816,7 @@
         <v>1.89051094890511</v>
       </c>
     </row>
-    <row r="801" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>3</v>
       </c>
@@ -49913,7 +49875,7 @@
         <v>6.905109489051096</v>
       </c>
     </row>
-    <row r="802" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>3</v>
       </c>
@@ -49966,7 +49928,7 @@
         <v>2.8248175182481745</v>
       </c>
     </row>
-    <row r="803" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>3</v>
       </c>
@@ -50025,7 +49987,7 @@
         <v>-5.8357664233576614</v>
       </c>
     </row>
-    <row r="804" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>3</v>
       </c>
@@ -50075,7 +50037,7 @@
         <v>-8.2262773722627713</v>
       </c>
     </row>
-    <row r="805" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>3</v>
       </c>
@@ -50128,7 +50090,7 @@
         <v>-7.7591240875912426</v>
       </c>
     </row>
-    <row r="806" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>3</v>
       </c>
@@ -50184,7 +50146,7 @@
         <v>-6.9489051094890506</v>
       </c>
     </row>
-    <row r="807" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>3</v>
       </c>
@@ -50237,7 +50199,7 @@
         <v>-21.291970802919707</v>
       </c>
     </row>
-    <row r="808" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>3</v>
       </c>
@@ -50290,7 +50252,7 @@
         <v>-8.2408759124087574</v>
       </c>
     </row>
-    <row r="809" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>3</v>
       </c>
@@ -50346,7 +50308,7 @@
         <v>-27.474452554744524</v>
       </c>
     </row>
-    <row r="810" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>3</v>
       </c>
@@ -50399,7 +50361,7 @@
         <v>-27.635036496350367</v>
       </c>
     </row>
-    <row r="811" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>3</v>
       </c>
@@ -50452,7 +50414,7 @@
         <v>-17.445255474452551</v>
       </c>
     </row>
-    <row r="812" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>3</v>
       </c>
@@ -50505,7 +50467,7 @@
         <v>-8.4963503649635044</v>
       </c>
     </row>
-    <row r="813" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>3</v>
       </c>
@@ -50564,7 +50526,7 @@
         <v>-17.934306569343065</v>
       </c>
     </row>
-    <row r="814" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>3</v>
       </c>
@@ -50620,7 +50582,7 @@
         <v>-0.78832116788321116</v>
       </c>
     </row>
-    <row r="815" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>3</v>
       </c>
@@ -50672,7 +50634,13 @@
       <c r="L832" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP815" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}"/>
+  <autoFilter ref="A1:AP815" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="S. Utoikamanu"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F38055-7C16-0A40-9233-0C40B508DA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E10EB-7950-5F4F-B555-C38ACBCB1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="2340" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="35400" yWindow="2340" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -1214,10 +1214,10 @@
     <t>POS1</t>
   </si>
   <si>
-    <t>Tota_ base</t>
+    <t>Base exceeds price premium</t>
   </si>
   <si>
-    <t>Base_exceeds_price_premium</t>
+    <t>Total base</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1725,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1736,6 +1736,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2118,56 +2124,58 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
+      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="9" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="15" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="37" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="10.83203125" collapsed="1"/>
-    <col min="39" max="41" width="10.83203125" style="2"/>
+    <col min="38" max="38" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.83203125" style="2" collapsed="1"/>
+    <col min="40" max="41" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:41" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -2236,11 +2244,12 @@
       <c r="AK1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
